--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Length statement (Corrected).xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Length statement (Corrected).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$67</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -137,11 +137,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +732,87 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -743,87 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,9 +917,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,6 +952,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,14 +1128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A54" zoomScale="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D65" sqref="D64:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
@@ -1148,62 +1150,62 @@
     <col min="12" max="13" width="5.85546875" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75">
-      <c r="B1" s="183" t="s">
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="174" t="s">
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="171" t="s">
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="171" t="s">
+      <c r="G3" s="170"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="171" t="s">
+      <c r="J3" s="170"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="172"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="167" t="s">
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="167" t="s">
+      <c r="P3" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="153" t="s">
+      <c r="Q3" s="180" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="3"/>
@@ -1215,9 +1217,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="25.5">
-      <c r="A4" s="175"/>
-      <c r="B4" s="177"/>
+    <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="173"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
@@ -1254,9 +1256,9 @@
       <c r="N4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="154"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="181"/>
       <c r="R4" s="149"/>
       <c r="S4" s="47"/>
       <c r="T4" s="47"/>
@@ -1268,7 +1270,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="48.75" customHeight="1">
+    <row r="5" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1310,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="11"/>
       <c r="C6" s="76">
@@ -1351,7 +1353,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9">
@@ -1387,11 +1389,11 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="159" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="160"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
       <c r="E8" s="24">
@@ -1433,7 +1435,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="30">
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1475,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="146"/>
       <c r="B10" s="147"/>
       <c r="C10" s="76">
@@ -1523,7 +1525,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" ht="15.75">
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
       <c r="C11" s="76">
@@ -1559,11 +1561,11 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="180" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="181"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="108"/>
       <c r="D12" s="109"/>
       <c r="E12" s="107">
@@ -1606,7 +1608,7 @@
       <c r="Y12" s="47"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="30">
+    <row r="13" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1661,7 @@
       <c r="Y13" s="47"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="11"/>
       <c r="C14" s="76">
@@ -1702,7 +1704,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="11"/>
       <c r="C15" s="76">
@@ -1745,7 +1747,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="11"/>
       <c r="C16" s="76">
@@ -1788,7 +1790,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="11"/>
       <c r="C17" s="105"/>
@@ -1824,21 +1826,21 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="180" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="181"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="108"/>
       <c r="D18" s="109"/>
       <c r="E18" s="107">
         <f>SUM(E13:E17)</f>
         <v>1.0819999999999936</v>
       </c>
-      <c r="F18" s="169" t="s">
+      <c r="F18" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="170"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="107">
         <f>SUM(H13:H17)</f>
         <v>1.541999999999998</v>
@@ -1874,7 +1876,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27" ht="30">
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>28</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="61">
@@ -1964,7 +1966,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="45">
@@ -2007,30 +2009,30 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="159" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="160"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="96"/>
       <c r="D22" s="97"/>
       <c r="E22" s="24">
         <f>SUM(E19:E21)</f>
         <v>1.0899999999999999</v>
       </c>
-      <c r="F22" s="163"/>
-      <c r="G22" s="164"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="166"/>
       <c r="H22" s="24">
         <v>0</v>
       </c>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="166"/>
       <c r="K22" s="24">
         <f>SUM(K19:K21)</f>
         <v>1.1550000000000002</v>
       </c>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="166"/>
       <c r="N22" s="24">
         <f>SUM(N19:N21)</f>
         <v>0</v>
@@ -2054,7 +2056,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27" ht="36" customHeight="1">
+    <row r="23" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +2103,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27" ht="18" customHeight="1">
+    <row r="24" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="C24" s="113">
         <v>1.21</v>
@@ -2143,7 +2145,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="18" customHeight="1">
+    <row r="25" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="113">
@@ -2184,7 +2186,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="18" customHeight="1">
+    <row r="26" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="113">
@@ -2225,7 +2227,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" spans="1:27" ht="18" customHeight="1">
+    <row r="27" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="113">
@@ -2251,8 +2253,8 @@
       <c r="I27" s="11"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="165"/>
-      <c r="M27" s="166"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="179"/>
       <c r="N27" s="16"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
@@ -2266,7 +2268,7 @@
       <c r="X27" s="59"/>
       <c r="Y27" s="59"/>
     </row>
-    <row r="28" spans="1:27" ht="18" customHeight="1">
+    <row r="28" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="113">
@@ -2300,7 +2302,7 @@
       <c r="X28" s="55"/>
       <c r="Y28" s="59"/>
     </row>
-    <row r="29" spans="1:27" ht="18" customHeight="1">
+    <row r="29" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="113">
@@ -2334,7 +2336,7 @@
       <c r="X29" s="55"/>
       <c r="Y29" s="59"/>
     </row>
-    <row r="30" spans="1:27" ht="18" customHeight="1">
+    <row r="30" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="113">
@@ -2368,7 +2370,7 @@
       <c r="X30" s="59"/>
       <c r="Y30" s="59"/>
     </row>
-    <row r="31" spans="1:27" ht="18" customHeight="1">
+    <row r="31" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="113">
@@ -2402,7 +2404,7 @@
       <c r="X31" s="59"/>
       <c r="Y31" s="59"/>
     </row>
-    <row r="32" spans="1:27" ht="18" customHeight="1">
+    <row r="32" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="113">
@@ -2436,7 +2438,7 @@
       <c r="X32" s="59"/>
       <c r="Y32" s="59"/>
     </row>
-    <row r="33" spans="1:26" ht="18" customHeight="1">
+    <row r="33" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="113">
@@ -2468,7 +2470,7 @@
       <c r="X33" s="59"/>
       <c r="Y33" s="59"/>
     </row>
-    <row r="34" spans="1:26" ht="30">
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="86" t="s">
         <v>12</v>
@@ -2503,7 +2505,7 @@
       <c r="X34" s="59"/>
       <c r="Y34" s="59"/>
     </row>
-    <row r="35" spans="1:26" ht="21" customHeight="1">
+    <row r="35" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="137" t="s">
         <v>31</v>
@@ -2536,31 +2538,31 @@
       <c r="X35" s="55"/>
       <c r="Y35" s="59"/>
     </row>
-    <row r="36" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A36" s="178" t="s">
+    <row r="36" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="179"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="123"/>
       <c r="D36" s="46"/>
       <c r="E36" s="24">
         <f>SUM(E23:E35)</f>
         <v>1.093999999999999</v>
       </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="164"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="166"/>
       <c r="H36" s="24">
         <f>SUM(H23:H35)</f>
         <v>1.0970000000000013</v>
       </c>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
       <c r="K36" s="24">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="L36" s="163"/>
-      <c r="M36" s="164"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="166"/>
       <c r="N36" s="24">
         <f>SUM(N23:N35)</f>
         <v>4.5000000000001705E-2</v>
@@ -2582,8 +2584,8 @@
       <c r="X36" s="55"/>
       <c r="Y36" s="59"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A37" s="161" t="s">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="176" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="125" t="s">
@@ -2628,8 +2630,8 @@
       <c r="Y37" s="59"/>
       <c r="Z37" s="93"/>
     </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="162"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="177"/>
       <c r="B38" s="14"/>
       <c r="C38" s="90"/>
       <c r="D38" s="91"/>
@@ -2663,8 +2665,8 @@
       <c r="Y38" s="59"/>
       <c r="Z38" s="93"/>
     </row>
-    <row r="39" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A39" s="162"/>
+    <row r="39" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="177"/>
       <c r="B39" s="124" t="s">
         <v>24</v>
       </c>
@@ -2699,7 +2701,7 @@
       <c r="Y39" s="59"/>
       <c r="Z39" s="93"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="126" t="s">
         <v>19</v>
@@ -2736,7 +2738,7 @@
       <c r="Y40" s="59"/>
       <c r="Z40" s="93"/>
     </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1">
+    <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="127" t="s">
         <v>25</v>
@@ -2769,7 +2771,7 @@
       <c r="Y41" s="59"/>
       <c r="Z41" s="93"/>
     </row>
-    <row r="42" spans="1:26" ht="18" customHeight="1">
+    <row r="42" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="128" t="s">
         <v>13</v>
@@ -2806,7 +2808,7 @@
       <c r="Y42" s="59"/>
       <c r="Z42" s="93"/>
     </row>
-    <row r="43" spans="1:26" ht="18" customHeight="1">
+    <row r="43" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="93"/>
@@ -2841,7 +2843,7 @@
       <c r="Y43" s="59"/>
       <c r="Z43" s="93"/>
     </row>
-    <row r="44" spans="1:26" ht="18" customHeight="1">
+    <row r="44" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="93"/>
@@ -2876,7 +2878,7 @@
       <c r="Y44" s="59"/>
       <c r="Z44" s="93"/>
     </row>
-    <row r="45" spans="1:26" ht="18" customHeight="1">
+    <row r="45" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="93"/>
@@ -2911,7 +2913,7 @@
       <c r="Y45" s="47"/>
       <c r="Z45" s="93"/>
     </row>
-    <row r="46" spans="1:26" ht="18" customHeight="1">
+    <row r="46" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="93"/>
@@ -2946,7 +2948,7 @@
       <c r="Y46" s="47"/>
       <c r="Z46" s="93"/>
     </row>
-    <row r="47" spans="1:26" ht="18" customHeight="1">
+    <row r="47" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="93"/>
@@ -2981,7 +2983,7 @@
       <c r="Y47" s="47"/>
       <c r="Z47" s="93"/>
     </row>
-    <row r="48" spans="1:26" ht="18" customHeight="1">
+    <row r="48" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="93"/>
@@ -3006,17 +3008,17 @@
       <c r="O48" s="43"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="155"/>
-      <c r="S48" s="155"/>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
+      <c r="R48" s="182"/>
+      <c r="S48" s="182"/>
+      <c r="T48" s="182"/>
+      <c r="U48" s="182"/>
       <c r="V48" s="49"/>
       <c r="W48" s="50"/>
       <c r="X48" s="47"/>
       <c r="Y48" s="47"/>
       <c r="Z48" s="93"/>
     </row>
-    <row r="49" spans="1:26" ht="18" customHeight="1">
+    <row r="49" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="93"/>
@@ -3041,17 +3043,17 @@
       <c r="O49" s="43"/>
       <c r="P49" s="44"/>
       <c r="Q49" s="13"/>
-      <c r="R49" s="155"/>
-      <c r="S49" s="155"/>
-      <c r="T49" s="155"/>
-      <c r="U49" s="155"/>
+      <c r="R49" s="182"/>
+      <c r="S49" s="182"/>
+      <c r="T49" s="182"/>
+      <c r="U49" s="182"/>
       <c r="V49" s="49"/>
       <c r="W49" s="50"/>
       <c r="X49" s="47"/>
       <c r="Y49" s="47"/>
       <c r="Z49" s="93"/>
     </row>
-    <row r="50" spans="1:26" ht="18" customHeight="1">
+    <row r="50" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -3079,14 +3081,14 @@
       <c r="R50" s="94"/>
       <c r="S50" s="94"/>
       <c r="T50" s="94"/>
-      <c r="U50" s="156"/>
-      <c r="V50" s="156"/>
+      <c r="U50" s="183"/>
+      <c r="V50" s="183"/>
       <c r="W50" s="150"/>
       <c r="X50" s="94"/>
       <c r="Y50" s="47"/>
       <c r="Z50" s="93"/>
     </row>
-    <row r="51" spans="1:26" ht="29.25" customHeight="1">
+    <row r="51" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="127" t="s">
         <v>20</v>
@@ -3119,31 +3121,31 @@
       <c r="Y51" s="47"/>
       <c r="Z51" s="93"/>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="159" t="s">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="160"/>
+      <c r="B52" s="157"/>
       <c r="C52" s="96"/>
       <c r="D52" s="97"/>
       <c r="E52" s="24">
         <f>E39</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="F52" s="163"/>
-      <c r="G52" s="164"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="166"/>
       <c r="H52" s="24">
         <f>H39+H41+H51</f>
         <v>4.3800000000000008</v>
       </c>
-      <c r="I52" s="163"/>
-      <c r="J52" s="164"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="166"/>
       <c r="K52" s="24">
         <f>SUM(K48:K50)</f>
         <v>0</v>
       </c>
-      <c r="L52" s="163"/>
-      <c r="M52" s="164"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="166"/>
       <c r="N52" s="24">
         <f>SUM(N48:N50)</f>
         <v>0</v>
@@ -3166,7 +3168,7 @@
       <c r="Y52" s="47"/>
       <c r="Z52" s="93"/>
     </row>
-    <row r="53" spans="1:26" ht="45">
+    <row r="53" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="131" t="s">
         <v>22</v>
       </c>
@@ -3219,7 +3221,7 @@
       <c r="Y53" s="47"/>
       <c r="Z53" s="93"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="3"/>
       <c r="C54" s="9">
@@ -3268,7 +3270,7 @@
       <c r="Y54" s="47"/>
       <c r="Z54" s="93"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="135"/>
       <c r="C55" s="9">
@@ -3316,7 +3318,7 @@
       <c r="Y55" s="47"/>
       <c r="Z55" s="93"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="135"/>
       <c r="C56" s="9">
@@ -3340,40 +3342,40 @@
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
-      <c r="R56" s="157"/>
-      <c r="S56" s="157"/>
-      <c r="T56" s="157"/>
-      <c r="U56" s="157"/>
+      <c r="R56" s="154"/>
+      <c r="S56" s="154"/>
+      <c r="T56" s="154"/>
+      <c r="U56" s="154"/>
       <c r="V56" s="49"/>
       <c r="W56" s="50"/>
       <c r="X56" s="47"/>
       <c r="Y56" s="47"/>
       <c r="Z56" s="93"/>
     </row>
-    <row r="57" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A57" s="182" t="s">
+    <row r="57" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="160"/>
+      <c r="B57" s="157"/>
       <c r="C57" s="96"/>
       <c r="D57" s="97"/>
       <c r="E57" s="24">
         <f>SUM(E53:E56)</f>
         <v>0.37</v>
       </c>
-      <c r="F57" s="163"/>
-      <c r="G57" s="164"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="166"/>
       <c r="H57" s="24">
         <f>SUM(H53:H56)</f>
         <v>3.0100000000000007</v>
       </c>
-      <c r="I57" s="163"/>
-      <c r="J57" s="164"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="166"/>
       <c r="K57" s="24">
         <v>0</v>
       </c>
-      <c r="L57" s="163"/>
-      <c r="M57" s="164"/>
+      <c r="L57" s="165"/>
+      <c r="M57" s="166"/>
       <c r="N57" s="29">
         <f>SUM(N53:N56)</f>
         <v>6.0000000000001052E-2</v>
@@ -3396,11 +3398,11 @@
       <c r="Y57" s="47"/>
       <c r="Z57" s="93"/>
     </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="159" t="s">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="160"/>
+      <c r="B58" s="157"/>
       <c r="C58" s="96"/>
       <c r="D58" s="97"/>
       <c r="E58" s="24">
@@ -3413,14 +3415,14 @@
         <f>H8+H12+H18+H36+H52+H57</f>
         <v>12.369</v>
       </c>
-      <c r="I58" s="163"/>
-      <c r="J58" s="164"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="166"/>
       <c r="K58" s="24">
         <f>K22</f>
         <v>1.1550000000000002</v>
       </c>
-      <c r="L58" s="163"/>
-      <c r="M58" s="164"/>
+      <c r="L58" s="165"/>
+      <c r="M58" s="166"/>
       <c r="N58" s="29">
         <f>N57+N36+N22+N18+N12</f>
         <v>0.16500000000000148</v>
@@ -3444,29 +3446,29 @@
       <c r="Y58" s="47"/>
       <c r="Z58" s="93"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R59" s="49"/>
       <c r="S59" s="48"/>
       <c r="T59" s="49"/>
-      <c r="U59" s="158"/>
-      <c r="V59" s="158"/>
+      <c r="U59" s="153"/>
+      <c r="V59" s="153"/>
       <c r="W59" s="50"/>
       <c r="X59" s="47"/>
       <c r="Y59" s="47"/>
       <c r="Z59" s="93"/>
     </row>
-    <row r="60" spans="1:26">
-      <c r="R60" s="157"/>
-      <c r="S60" s="157"/>
-      <c r="T60" s="157"/>
-      <c r="U60" s="157"/>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R60" s="154"/>
+      <c r="S60" s="154"/>
+      <c r="T60" s="154"/>
+      <c r="U60" s="154"/>
       <c r="V60" s="49"/>
       <c r="W60" s="50"/>
       <c r="X60" s="47"/>
       <c r="Y60" s="59"/>
       <c r="Z60" s="93"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R61" s="145"/>
       <c r="S61" s="141"/>
       <c r="T61" s="142"/>
@@ -3476,7 +3478,7 @@
       <c r="X61" s="94"/>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R62" s="145"/>
       <c r="S62" s="141"/>
       <c r="T62" s="142"/>
@@ -3486,7 +3488,7 @@
       <c r="X62" s="94"/>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R63" s="49"/>
       <c r="S63" s="48"/>
       <c r="T63" s="49"/>
@@ -3496,17 +3498,17 @@
       <c r="X63" s="47"/>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R64" s="49"/>
       <c r="S64" s="48"/>
       <c r="T64" s="49"/>
-      <c r="U64" s="158"/>
-      <c r="V64" s="158"/>
+      <c r="U64" s="153"/>
+      <c r="V64" s="153"/>
       <c r="W64" s="50"/>
       <c r="X64" s="47"/>
       <c r="Y64" s="3"/>
     </row>
-    <row r="65" spans="18:25">
+    <row r="65" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -3518,6 +3520,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="U64:V64"/>
     <mergeCell ref="R60:U60"/>
     <mergeCell ref="B1:O1"/>
@@ -3534,32 +3562,6 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R48:U48"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="R56:U56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -3567,24 +3569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
